--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS AGOSTO 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS AGOSTO 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="152">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-3505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no hay boleta</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-4187</t>
@@ -581,7 +578,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,10 +631,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -667,10 +660,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="N:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,9 +978,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -996,10 +987,10 @@
         <v>42585</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -1021,9 +1012,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="P8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1020,10 @@
         <v>42585</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -1056,9 +1045,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1053,10 @@
         <v>42585</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
@@ -1091,9 +1078,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,10 +1086,10 @@
         <v>42585</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -1126,9 +1111,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N11" s="3"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,10 +1119,10 @@
         <v>42586</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -1161,9 +1144,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,10 +1152,10 @@
         <v>42586</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -1215,10 +1196,10 @@
         <v>42586</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -1259,10 +1240,10 @@
         <v>42583</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -1303,10 +1284,10 @@
         <v>42587</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -1347,10 +1328,10 @@
         <v>42587</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
@@ -1391,10 +1372,10 @@
         <v>42590</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>14</v>
@@ -1435,10 +1416,10 @@
         <v>42590</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>14</v>
@@ -1479,10 +1460,10 @@
         <v>42590</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>14</v>
@@ -1521,10 +1502,10 @@
         <v>42590</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>14</v>
@@ -1565,10 +1546,10 @@
         <v>42590</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>14</v>
@@ -1609,10 +1590,10 @@
         <v>42590</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>14</v>
@@ -1653,10 +1634,10 @@
         <v>42591</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>14</v>
@@ -1697,10 +1678,10 @@
         <v>42591</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>14</v>
@@ -1741,10 +1722,10 @@
         <v>42591</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>14</v>
@@ -1785,10 +1766,10 @@
         <v>42592</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>14</v>
@@ -1829,10 +1810,10 @@
         <v>42592</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>14</v>
@@ -1873,10 +1854,10 @@
         <v>42592</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>14</v>
@@ -1898,9 +1879,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
@@ -1909,10 +1888,10 @@
         <v>42592</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>14</v>
@@ -1953,10 +1932,10 @@
         <v>42593</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>14</v>
@@ -1997,10 +1976,10 @@
         <v>42593</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>14</v>
@@ -2022,9 +2001,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
@@ -2033,10 +2010,10 @@
         <v>42593</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>14</v>
@@ -2077,10 +2054,10 @@
         <v>42593</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>14</v>
@@ -2121,10 +2098,10 @@
         <v>42593</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>14</v>
@@ -2146,9 +2123,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
@@ -2157,10 +2132,10 @@
         <v>42593</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>14</v>
@@ -2182,9 +2157,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
@@ -2193,10 +2166,10 @@
         <v>42594</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>14</v>
@@ -2226,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2237,10 +2210,10 @@
         <v>42594</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>14</v>
@@ -2262,9 +2235,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
@@ -2273,10 +2244,10 @@
         <v>42600</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>14</v>
@@ -2317,10 +2288,10 @@
         <v>42598</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>14</v>
@@ -2361,10 +2332,10 @@
         <v>42598</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>14</v>
@@ -2386,9 +2357,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
@@ -2397,10 +2366,10 @@
         <v>42600</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>14</v>
@@ -2422,9 +2391,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
@@ -2433,10 +2400,10 @@
         <v>42600</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>14</v>
@@ -2458,9 +2425,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="N43" s="12"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
@@ -2469,10 +2434,10 @@
         <v>42600</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>14</v>
@@ -2494,9 +2459,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="N44" s="12"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
@@ -2505,10 +2468,10 @@
         <v>42600</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>14</v>
@@ -2530,9 +2493,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="N45" s="12"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
@@ -2541,10 +2502,10 @@
         <v>42600</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>14</v>
@@ -2566,9 +2527,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="N46" s="12"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
@@ -2577,10 +2536,10 @@
         <v>42600</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>14</v>
@@ -2610,7 +2569,7 @@
       <c r="M47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="13"/>
+      <c r="N47" s="12"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
@@ -2619,10 +2578,10 @@
         <v>42600</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>14</v>
@@ -2663,10 +2622,10 @@
         <v>42601</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>14</v>
@@ -2707,10 +2666,10 @@
         <v>42601</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>14</v>
@@ -2749,10 +2708,10 @@
         <v>42601</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>14</v>
@@ -2793,10 +2752,10 @@
         <v>43696</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>14</v>
@@ -2837,10 +2796,10 @@
         <v>42601</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>14</v>
@@ -2881,10 +2840,10 @@
         <v>42601</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>14</v>
@@ -2925,10 +2884,10 @@
         <v>42601</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>14</v>
@@ -2950,9 +2909,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
@@ -2961,10 +2918,10 @@
         <v>42604</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>14</v>
@@ -2994,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -3005,10 +2962,10 @@
         <v>42605</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>14</v>
@@ -3049,10 +3006,10 @@
         <v>42605</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>14</v>
@@ -3093,10 +3050,10 @@
         <v>42606</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>14</v>
@@ -3137,10 +3094,10 @@
         <v>42606</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>14</v>
@@ -3162,9 +3119,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
@@ -3173,10 +3128,10 @@
         <v>42606</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>14</v>
@@ -3217,10 +3172,10 @@
         <v>42608</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>14</v>
@@ -3261,10 +3216,10 @@
         <v>42608</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>14</v>
@@ -3305,10 +3260,10 @@
         <v>42608</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>14</v>
@@ -3349,10 +3304,10 @@
         <v>42608</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>14</v>
@@ -3391,10 +3346,10 @@
         <v>42608</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>14</v>
@@ -3435,10 +3390,10 @@
         <v>42608</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>14</v>
@@ -3477,10 +3432,10 @@
         <v>42608</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>14</v>
@@ -3508,7 +3463,7 @@
         <v>17</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -3519,10 +3474,10 @@
         <v>42612</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>14</v>
@@ -3544,9 +3499,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
-      <c r="N69" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
@@ -3555,10 +3508,10 @@
         <v>42612</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>14</v>
@@ -3580,9 +3533,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
-      <c r="N70" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
@@ -3591,10 +3542,10 @@
         <v>42612</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>14</v>
@@ -3616,9 +3567,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
-      <c r="N71" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
@@ -3627,10 +3576,10 @@
         <v>42612</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>14</v>
@@ -3652,9 +3601,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
-      <c r="N72" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
@@ -3663,10 +3610,10 @@
         <v>42612</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>14</v>
@@ -3688,9 +3635,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
-      <c r="N73" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
@@ -3699,10 +3644,10 @@
         <v>42613</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>14</v>
@@ -3724,17 +3669,15 @@
       <c r="K74" s="9"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
-      <c r="N74" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="15" t="n">
+    <row r="75" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="14" t="n">
         <f aca="false">SUM(H2:H74)</f>
         <v>3157805500</v>
       </c>
-      <c r="K75" s="15" t="n">
+      <c r="K75" s="14" t="n">
         <f aca="false">SUM(K2:K74)</f>
         <v>1938466500</v>
       </c>
@@ -3743,16 +3686,11 @@
       <c r="AMJ75" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="16" t="n">
+      <c r="H78" s="15" t="n">
         <f aca="false">K75-H75</f>
         <v>-1219339000</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
